--- a/BalanceSheet/ALGN_bal.xlsx
+++ b/BalanceSheet/ALGN_bal.xlsx
@@ -507,16 +507,16 @@
         <v>151000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-17336000.0</v>
+        <v>139000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>9624000.0</v>
+        <v>123000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-10902000.0</v>
+        <v>131000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-10496000.0</v>
+        <v>121000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>112051000.0</v>
@@ -1855,16 +1855,16 @@
         <v>124000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>30369000.0</v>
+        <v>142000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>9919000.0</v>
+        <v>119000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>23952000.0</v>
+        <v>95000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>-12034000.0</v>
+        <v>73000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>87250000.0</v>
@@ -3348,16 +3348,16 @@
         <v>-1522000000.0</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>10882000.0</v>
+        <v>-1553000000.0</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>1792000.0</v>
+        <v>-1566000000.0</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>-17097000.0</v>
+        <v>-1568000000.0</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>-1487154000.0</v>
+        <v>-1551000000.0</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>-64000000.0</v>
@@ -4960,7 +4960,7 @@
         <v>-717000000.0</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>-810000000.0</v>
+        <v>-809627000.0</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>-739008000.0</v>
